--- a/variance analysis.xlsx
+++ b/variance analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bvandusen/Box Sync/work/Publications/2019/Equity/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bvandusen/Physics_Equity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A344F9-297D-FE4C-8C7D-0E32F0A27677}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C697331-BA76-774E-B5EB-CA0C86DB989D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13240" yWindow="3660" windowWidth="17060" windowHeight="12780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26820" yWindow="8960" windowWidth="17060" windowHeight="12780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variance" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">variance!$A$2:$G$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Model</t>
   </si>
@@ -128,6 +133,9 @@
   </si>
   <si>
     <t>&lt;0.05</t>
+  </si>
+  <si>
+    <t>race_urm</t>
   </si>
 </sst>
 </file>
@@ -137,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,9 +220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -218,6 +229,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,14 +536,14 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
@@ -598,14 +613,14 @@
         <v>294.33199999999999</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" ref="E6:E15" si="0">1-(D6/D$4)</f>
+        <f t="shared" ref="E6:E16" si="0">1-(D6/D$4)</f>
         <v>9.7907606113823542E-2</v>
       </c>
       <c r="F6" s="5">
         <v>57.595999999999997</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" ref="E6:G15" si="1">1-(F6/F$4)</f>
+        <f t="shared" ref="E6:G16" si="1">1-(F6/F$4)</f>
         <v>3.8335670874240391E-2</v>
       </c>
     </row>
@@ -675,134 +690,156 @@
         <v>4.6667334535497207E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>287.97800000000001</v>
+        <v>6.1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>289.33300000000003</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0.11738185652068633</v>
-      </c>
-      <c r="F10">
-        <v>55.854999999999997</v>
+        <v>0.11322894350505852</v>
+      </c>
+      <c r="F10" s="13">
+        <v>55.93</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
+        <v>6.6152407667134261E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>287.97800000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11738185652068633</v>
+      </c>
+      <c r="F11">
+        <v>55.854999999999997</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
         <v>6.7404661724437376E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+    <row r="12" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="10">
         <v>287.97699999999998</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>0.11738492140114076</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="10">
         <v>54.356999999999999</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>9.2416349428972255E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>287.86599999999999</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>0.11772512313157224</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>54.418999999999997</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>9.1381152741601634E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>287.98599999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>0.11735733747705168</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>54.415999999999997</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>9.1431242903893817E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>287.916</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>0.11757187910885536</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>54.341000000000001</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>9.2683496961196821E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>278.101</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <f t="shared" si="0"/>
         <v>0.14765368076818164</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>58.433</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>2.4360515594737286E-2</v>
       </c>
